--- a/CDM Content/Digital Building Twin/CDM_Site.xlsx
+++ b/CDM Content/Digital Building Twin/CDM_Site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuathiele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buildingminds1.sharepoint.com/sites/CDM-testteam/Freigegebene Dokumente/General/CDM Content/Digital Building Twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D041C-84CB-254E-A7B2-DD1AA7B5BE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{457D041C-84CB-254E-A7B2-DD1AA7B5BE0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{35A66D0C-EE84-D54C-A7F5-775C284B5416}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,36 +33,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>ValidFrom</t>
   </si>
   <si>
-    <t>GUID</t>
+    <t>ValidUntil</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>SiteId</t>
+  </si>
+  <si>
+    <t>SiteCode</t>
+  </si>
+  <si>
+    <t>AddressId</t>
   </si>
   <si>
     <t>BusinessPartnerId</t>
-  </si>
-  <si>
-    <t>SiteId</t>
-  </si>
-  <si>
-    <t>SiteCode</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ValidEnd</t>
-  </si>
-  <si>
-    <t>AreaMeasurementId</t>
-  </si>
-  <si>
-    <t>AddressId</t>
   </si>
 </sst>
 </file>
@@ -99,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,16 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D4E98-1349-EF46-83A9-BEA8BC5DB549}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="11" max="13" width="11" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
@@ -435,24 +434,24 @@
     <col min="34" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -461,16 +460,29 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -693,21 +705,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15AD125-629D-4389-B43B-E3E1E119A90D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15AD125-629D-4389-B43B-E3E1E119A90D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
